--- a/StationsToLocate/FinalList/Master_List_of_Stations_Results_Tol12000_II.xlsx
+++ b/StationsToLocate/FinalList/Master_List_of_Stations_Results_Tol12000_II.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="90" windowWidth="13725" windowHeight="12300" tabRatio="583" activeTab="2"/>
+    <workbookView xWindow="1920" yWindow="90" windowWidth="13725" windowHeight="12300" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Merged" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18212" uniqueCount="2684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18488" uniqueCount="2685">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -8086,6 +8086,9 @@
   </si>
   <si>
     <t>STATION</t>
+  </si>
+  <si>
+    <t>Not Required</t>
   </si>
 </sst>
 </file>
@@ -8940,8 +8943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X277"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="I240" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8967,7 +8970,7 @@
     <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -9108,7 +9111,9 @@
       <c r="U2" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V2" s="8"/>
+      <c r="V2" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="8">
@@ -9172,7 +9177,9 @@
       <c r="U3" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V3" s="8"/>
+      <c r="V3" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="8">
@@ -9236,7 +9243,9 @@
       <c r="U4" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V4" s="8"/>
+      <c r="V4" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="8">
@@ -9300,7 +9309,9 @@
       <c r="U5" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V5" s="8"/>
+      <c r="V5" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W5" s="8" t="s">
         <v>2035</v>
       </c>
@@ -9367,7 +9378,9 @@
       <c r="U6" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V6" s="8"/>
+      <c r="V6" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W6" s="8" t="s">
         <v>2035</v>
       </c>
@@ -9434,7 +9447,9 @@
       <c r="U7" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V7" s="8"/>
+      <c r="V7" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W7" s="8" t="s">
         <v>2035</v>
       </c>
@@ -9501,7 +9516,9 @@
       <c r="U8" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V8" s="8"/>
+      <c r="V8" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W8" s="8" t="s">
         <v>2035</v>
       </c>
@@ -9568,7 +9585,9 @@
       <c r="U9" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V9" s="8"/>
+      <c r="V9" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W9" s="8" t="s">
         <v>2035</v>
       </c>
@@ -9635,7 +9654,9 @@
       <c r="U10" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V10" s="8"/>
+      <c r="V10" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W10" s="8" t="s">
         <v>2035</v>
       </c>
@@ -9702,7 +9723,9 @@
       <c r="U11" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V11" s="8"/>
+      <c r="V11" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W11" s="8" t="s">
         <v>2035</v>
       </c>
@@ -9769,7 +9792,9 @@
       <c r="U12" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V12" s="8"/>
+      <c r="V12" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W12" s="8" t="s">
         <v>2035</v>
       </c>
@@ -9836,7 +9861,9 @@
       <c r="U13" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V13" s="8"/>
+      <c r="V13" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W13" s="8" t="s">
         <v>2035</v>
       </c>
@@ -9903,7 +9930,9 @@
       <c r="U14" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V14" s="8"/>
+      <c r="V14" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W14" s="8" t="s">
         <v>2035</v>
       </c>
@@ -9970,7 +9999,9 @@
       <c r="U15" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V15" s="8"/>
+      <c r="V15" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W15" s="8" t="s">
         <v>2035</v>
       </c>
@@ -10037,7 +10068,9 @@
       <c r="U16" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V16" s="8"/>
+      <c r="V16" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W16" s="8" t="s">
         <v>2035</v>
       </c>
@@ -10104,7 +10137,9 @@
       <c r="U17" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V17" s="8"/>
+      <c r="V17" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W17" s="8" t="s">
         <v>2035</v>
       </c>
@@ -10171,7 +10206,9 @@
       <c r="U18" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V18" s="8"/>
+      <c r="V18" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W18" s="8" t="s">
         <v>2035</v>
       </c>
@@ -10238,7 +10275,9 @@
       <c r="U19" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V19" s="8"/>
+      <c r="V19" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W19" s="8" t="s">
         <v>2035</v>
       </c>
@@ -10305,7 +10344,9 @@
       <c r="U20" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V20" s="8"/>
+      <c r="V20" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W20" s="8" t="s">
         <v>2035</v>
       </c>
@@ -10372,7 +10413,9 @@
       <c r="U21" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V21" s="8"/>
+      <c r="V21" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W21" s="8" t="s">
         <v>2035</v>
       </c>
@@ -10439,7 +10482,9 @@
       <c r="U22" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V22" s="8"/>
+      <c r="V22" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W22" s="8" t="s">
         <v>2035</v>
       </c>
@@ -10506,7 +10551,9 @@
       <c r="U23" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V23" s="8"/>
+      <c r="V23" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W23" s="8" t="s">
         <v>2035</v>
       </c>
@@ -10573,7 +10620,9 @@
       <c r="U24" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V24" s="8"/>
+      <c r="V24" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W24" s="8" t="s">
         <v>2035</v>
       </c>
@@ -10640,7 +10689,9 @@
       <c r="U25" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V25" s="8"/>
+      <c r="V25" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="8">
@@ -10704,7 +10755,9 @@
       <c r="U26" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V26" s="8"/>
+      <c r="V26" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="8">
@@ -10768,7 +10821,9 @@
       <c r="U27" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V27" s="8"/>
+      <c r="V27" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="8">
@@ -10832,7 +10887,9 @@
       <c r="U28" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V28" s="8"/>
+      <c r="V28" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W28" s="8" t="s">
         <v>2035</v>
       </c>
@@ -10899,7 +10956,9 @@
       <c r="U29" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V29" s="8"/>
+      <c r="V29" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W29" s="8" t="s">
         <v>2035</v>
       </c>
@@ -10966,7 +11025,9 @@
       <c r="U30" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V30" s="8"/>
+      <c r="V30" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W30" s="8" t="s">
         <v>2035</v>
       </c>
@@ -11033,7 +11094,9 @@
       <c r="U31" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V31" s="8"/>
+      <c r="V31" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W31" s="8" t="s">
         <v>2035</v>
       </c>
@@ -11100,7 +11163,9 @@
       <c r="U32" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V32" s="8"/>
+      <c r="V32" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W32" s="8" t="s">
         <v>2035</v>
       </c>
@@ -11167,7 +11232,9 @@
       <c r="U33" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V33" s="8"/>
+      <c r="V33" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W33" s="8" t="s">
         <v>2035</v>
       </c>
@@ -11234,7 +11301,9 @@
       <c r="U34" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V34" s="8"/>
+      <c r="V34" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W34" s="8" t="s">
         <v>2035</v>
       </c>
@@ -11301,7 +11370,9 @@
       <c r="U35" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V35" s="8"/>
+      <c r="V35" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W35" s="8" t="s">
         <v>2035</v>
       </c>
@@ -11368,7 +11439,9 @@
       <c r="U36" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V36" s="8"/>
+      <c r="V36" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W36" s="8" t="s">
         <v>2035</v>
       </c>
@@ -11435,7 +11508,9 @@
       <c r="U37" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V37" s="8"/>
+      <c r="V37" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W37" s="8" t="s">
         <v>2035</v>
       </c>
@@ -11502,7 +11577,9 @@
       <c r="U38" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V38" s="8"/>
+      <c r="V38" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W38" s="8" t="s">
         <v>2035</v>
       </c>
@@ -11569,7 +11646,9 @@
       <c r="U39" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V39" s="8"/>
+      <c r="V39" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W39" s="8" t="s">
         <v>2035</v>
       </c>
@@ -11636,7 +11715,9 @@
       <c r="U40" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V40" s="8"/>
+      <c r="V40" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W40" s="8" t="s">
         <v>2035</v>
       </c>
@@ -11703,7 +11784,9 @@
       <c r="U41" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V41" s="8"/>
+      <c r="V41" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W41" s="8" t="s">
         <v>2035</v>
       </c>
@@ -11770,7 +11853,9 @@
       <c r="U42" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V42" s="8"/>
+      <c r="V42" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W42" s="8" t="s">
         <v>2035</v>
       </c>
@@ -11837,7 +11922,9 @@
       <c r="U43" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V43" s="8"/>
+      <c r="V43" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W43" s="8" t="s">
         <v>2035</v>
       </c>
@@ -11904,7 +11991,9 @@
       <c r="U44" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V44" s="8"/>
+      <c r="V44" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W44" s="8" t="s">
         <v>2035</v>
       </c>
@@ -11971,7 +12060,9 @@
       <c r="U45" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V45" s="8"/>
+      <c r="V45" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W45" s="8" t="s">
         <v>2035</v>
       </c>
@@ -12038,7 +12129,9 @@
       <c r="U46" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V46" s="8"/>
+      <c r="V46" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W46" s="8" t="s">
         <v>2035</v>
       </c>
@@ -12105,7 +12198,9 @@
       <c r="U47" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V47" s="8"/>
+      <c r="V47" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W47" s="8" t="s">
         <v>2035</v>
       </c>
@@ -12172,7 +12267,9 @@
       <c r="U48" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V48" s="8"/>
+      <c r="V48" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W48" s="8" t="s">
         <v>2035</v>
       </c>
@@ -12239,7 +12336,9 @@
       <c r="U49" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V49" s="8"/>
+      <c r="V49" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W49" s="8" t="s">
         <v>2035</v>
       </c>
@@ -12306,7 +12405,9 @@
       <c r="U50" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V50" s="8"/>
+      <c r="V50" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W50" s="8" t="s">
         <v>2035</v>
       </c>
@@ -12373,7 +12474,9 @@
       <c r="U51" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V51" s="8"/>
+      <c r="V51" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W51" s="8" t="s">
         <v>2035</v>
       </c>
@@ -12440,7 +12543,9 @@
       <c r="U52" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V52" s="8"/>
+      <c r="V52" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W52" s="8" t="s">
         <v>2035</v>
       </c>
@@ -12507,7 +12612,9 @@
       <c r="U53" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V53" s="8"/>
+      <c r="V53" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W53" s="8" t="s">
         <v>2035</v>
       </c>
@@ -12574,7 +12681,9 @@
       <c r="U54" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V54" s="8"/>
+      <c r="V54" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W54" s="8" t="s">
         <v>2035</v>
       </c>
@@ -12641,7 +12750,9 @@
       <c r="U55" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V55" s="8"/>
+      <c r="V55" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W55" s="8" t="s">
         <v>2035</v>
       </c>
@@ -12708,7 +12819,9 @@
       <c r="U56" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V56" s="8"/>
+      <c r="V56" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W56" s="8" t="s">
         <v>2035</v>
       </c>
@@ -12775,7 +12888,9 @@
       <c r="U57" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V57" s="8"/>
+      <c r="V57" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="58" spans="1:23">
       <c r="A58" s="8">
@@ -12839,7 +12954,9 @@
       <c r="U58" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V58" s="8"/>
+      <c r="V58" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W58" s="8" t="s">
         <v>2035</v>
       </c>
@@ -12906,7 +13023,9 @@
       <c r="U59" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V59" s="8"/>
+      <c r="V59" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W59" s="8" t="s">
         <v>2035</v>
       </c>
@@ -12973,7 +13092,9 @@
       <c r="U60" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V60" s="8"/>
+      <c r="V60" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W60" s="8" t="s">
         <v>2035</v>
       </c>
@@ -13040,7 +13161,9 @@
       <c r="U61" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V61" s="8"/>
+      <c r="V61" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W61" s="8" t="s">
         <v>2035</v>
       </c>
@@ -13107,7 +13230,9 @@
       <c r="U62" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V62" s="8"/>
+      <c r="V62" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W62" s="8" t="s">
         <v>2035</v>
       </c>
@@ -13174,7 +13299,9 @@
       <c r="U63" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V63" s="8"/>
+      <c r="V63" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W63" s="8" t="s">
         <v>2035</v>
       </c>
@@ -13241,7 +13368,9 @@
       <c r="U64" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V64" s="8"/>
+      <c r="V64" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W64" s="8" t="s">
         <v>2035</v>
       </c>
@@ -13308,7 +13437,9 @@
       <c r="U65" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V65" s="8"/>
+      <c r="V65" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W65" s="8" t="s">
         <v>2035</v>
       </c>
@@ -13375,7 +13506,9 @@
       <c r="U66" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V66" s="8"/>
+      <c r="V66" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W66" s="8" t="s">
         <v>2035</v>
       </c>
@@ -13442,7 +13575,9 @@
       <c r="U67" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V67" s="8"/>
+      <c r="V67" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W67" s="8" t="s">
         <v>2035</v>
       </c>
@@ -13509,7 +13644,9 @@
       <c r="U68" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V68" s="8"/>
+      <c r="V68" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="8">
@@ -13573,7 +13710,9 @@
       <c r="U69" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V69" s="8"/>
+      <c r="V69" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W69" s="8" t="s">
         <v>2035</v>
       </c>
@@ -13640,7 +13779,9 @@
       <c r="U70" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V70" s="8"/>
+      <c r="V70" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W70" s="8" t="s">
         <v>2035</v>
       </c>
@@ -13707,7 +13848,9 @@
       <c r="U71" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V71" s="8"/>
+      <c r="V71" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W71" s="8" t="s">
         <v>2035</v>
       </c>
@@ -13774,7 +13917,9 @@
       <c r="U72" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V72" s="8"/>
+      <c r="V72" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W72" s="8" t="s">
         <v>2035</v>
       </c>
@@ -13841,7 +13986,9 @@
       <c r="U73" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V73" s="8"/>
+      <c r="V73" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W73" s="8" t="s">
         <v>2035</v>
       </c>
@@ -13908,7 +14055,9 @@
       <c r="U74" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V74" s="8"/>
+      <c r="V74" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W74" s="8" t="s">
         <v>2035</v>
       </c>
@@ -13975,7 +14124,9 @@
       <c r="U75" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V75" s="8"/>
+      <c r="V75" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W75" s="8" t="s">
         <v>2035</v>
       </c>
@@ -14042,7 +14193,9 @@
       <c r="U76" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V76" s="8"/>
+      <c r="V76" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W76" s="8" t="s">
         <v>2035</v>
       </c>
@@ -14109,7 +14262,9 @@
       <c r="U77" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V77" s="8"/>
+      <c r="V77" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W77" s="8" t="s">
         <v>2035</v>
       </c>
@@ -14176,7 +14331,9 @@
       <c r="U78" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V78" s="8"/>
+      <c r="V78" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W78" s="8" t="s">
         <v>2035</v>
       </c>
@@ -14243,7 +14400,9 @@
       <c r="U79" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V79" s="8"/>
+      <c r="V79" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W79" s="8" t="s">
         <v>2035</v>
       </c>
@@ -14310,7 +14469,9 @@
       <c r="U80" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V80" s="8"/>
+      <c r="V80" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" s="8">
@@ -14374,7 +14535,9 @@
       <c r="U81" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V81" s="8"/>
+      <c r="V81" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="82" spans="1:23">
       <c r="A82" s="8">
@@ -14438,7 +14601,9 @@
       <c r="U82" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V82" s="8"/>
+      <c r="V82" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W82" s="8" t="s">
         <v>2035</v>
       </c>
@@ -14505,7 +14670,9 @@
       <c r="U83" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V83" s="8"/>
+      <c r="V83" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W83" s="8" t="s">
         <v>2035</v>
       </c>
@@ -14572,7 +14739,9 @@
       <c r="U84" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V84" s="8"/>
+      <c r="V84" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W84" s="8" t="s">
         <v>2035</v>
       </c>
@@ -14639,7 +14808,9 @@
       <c r="U85" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V85" s="8"/>
+      <c r="V85" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W85" s="8" t="s">
         <v>2035</v>
       </c>
@@ -14706,7 +14877,9 @@
       <c r="U86" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V86" s="8"/>
+      <c r="V86" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W86" s="8" t="s">
         <v>2035</v>
       </c>
@@ -14773,7 +14946,9 @@
       <c r="U87" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V87" s="8"/>
+      <c r="V87" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W87" s="8" t="s">
         <v>2035</v>
       </c>
@@ -14840,7 +15015,9 @@
       <c r="U88" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V88" s="8"/>
+      <c r="V88" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W88" s="8" t="s">
         <v>2035</v>
       </c>
@@ -14907,7 +15084,9 @@
       <c r="U89" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V89" s="8"/>
+      <c r="V89" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W89" s="8" t="s">
         <v>2035</v>
       </c>
@@ -14974,7 +15153,9 @@
       <c r="U90" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V90" s="8"/>
+      <c r="V90" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W90" s="8" t="s">
         <v>2035</v>
       </c>
@@ -15041,7 +15222,9 @@
       <c r="U91" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V91" s="8"/>
+      <c r="V91" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W91" s="8" t="s">
         <v>2035</v>
       </c>
@@ -15108,7 +15291,9 @@
       <c r="U92" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V92" s="8"/>
+      <c r="V92" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="93" spans="1:23">
       <c r="A93" s="8">
@@ -15172,7 +15357,9 @@
       <c r="U93" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V93" s="8"/>
+      <c r="V93" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W93" s="8" t="s">
         <v>2035</v>
       </c>
@@ -15239,7 +15426,9 @@
       <c r="U94" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V94" s="8"/>
+      <c r="V94" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W94" s="8" t="s">
         <v>2035</v>
       </c>
@@ -15306,7 +15495,9 @@
       <c r="U95" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V95" s="8"/>
+      <c r="V95" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="96" spans="1:23">
       <c r="A96" s="8">
@@ -15370,7 +15561,9 @@
       <c r="U96" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V96" s="8"/>
+      <c r="V96" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W96" s="8" t="s">
         <v>2035</v>
       </c>
@@ -15437,7 +15630,9 @@
       <c r="U97" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V97" s="8"/>
+      <c r="V97" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="98" spans="1:23">
       <c r="A98" s="8">
@@ -15501,7 +15696,9 @@
       <c r="U98" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V98" s="8"/>
+      <c r="V98" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W98" s="8" t="s">
         <v>2035</v>
       </c>
@@ -15568,7 +15765,9 @@
       <c r="U99" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V99" s="8"/>
+      <c r="V99" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W99" s="8" t="s">
         <v>2035</v>
       </c>
@@ -15635,7 +15834,9 @@
       <c r="U100" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V100" s="8"/>
+      <c r="V100" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W100" s="8" t="s">
         <v>2035</v>
       </c>
@@ -15702,7 +15903,9 @@
       <c r="U101" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V101" s="8"/>
+      <c r="V101" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W101" s="8" t="s">
         <v>2035</v>
       </c>
@@ -15769,7 +15972,9 @@
       <c r="U102" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V102" s="8"/>
+      <c r="V102" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W102" s="8" t="s">
         <v>2035</v>
       </c>
@@ -15836,7 +16041,9 @@
       <c r="U103" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V103" s="8"/>
+      <c r="V103" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W103" s="8" t="s">
         <v>2035</v>
       </c>
@@ -15903,7 +16110,9 @@
       <c r="U104" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V104" s="8"/>
+      <c r="V104" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W104" s="8" t="s">
         <v>2035</v>
       </c>
@@ -15970,7 +16179,9 @@
       <c r="U105" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V105" s="8"/>
+      <c r="V105" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="106" spans="1:23">
       <c r="A106" s="8">
@@ -16034,7 +16245,9 @@
       <c r="U106" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V106" s="8"/>
+      <c r="V106" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W106" s="8" t="s">
         <v>2035</v>
       </c>
@@ -16101,7 +16314,9 @@
       <c r="U107" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V107" s="8"/>
+      <c r="V107" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W107" s="8" t="s">
         <v>2035</v>
       </c>
@@ -16168,7 +16383,9 @@
       <c r="U108" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V108" s="8"/>
+      <c r="V108" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W108" s="8" t="s">
         <v>2035</v>
       </c>
@@ -16235,7 +16452,9 @@
       <c r="U109" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V109" s="8"/>
+      <c r="V109" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W109" s="8" t="s">
         <v>2035</v>
       </c>
@@ -16302,7 +16521,9 @@
       <c r="U110" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V110" s="8"/>
+      <c r="V110" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W110" s="8" t="s">
         <v>2035</v>
       </c>
@@ -16369,7 +16590,9 @@
       <c r="U111" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V111" s="8"/>
+      <c r="V111" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W111" s="8" t="s">
         <v>2035</v>
       </c>
@@ -16436,7 +16659,9 @@
       <c r="U112" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V112" s="8"/>
+      <c r="V112" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W112" s="8" t="s">
         <v>2035</v>
       </c>
@@ -16503,7 +16728,9 @@
       <c r="U113" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V113" s="8"/>
+      <c r="V113" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W113" s="8" t="s">
         <v>2035</v>
       </c>
@@ -16570,7 +16797,9 @@
       <c r="U114" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V114" s="8"/>
+      <c r="V114" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W114" s="8" t="s">
         <v>2035</v>
       </c>
@@ -16637,7 +16866,9 @@
       <c r="U115" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V115" s="8"/>
+      <c r="V115" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W115" s="8" t="s">
         <v>2035</v>
       </c>
@@ -16704,7 +16935,9 @@
       <c r="U116" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V116" s="8"/>
+      <c r="V116" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W116" s="8" t="s">
         <v>2035</v>
       </c>
@@ -16771,7 +17004,9 @@
       <c r="U117" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V117" s="8"/>
+      <c r="V117" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W117" s="8" t="s">
         <v>2035</v>
       </c>
@@ -16838,7 +17073,9 @@
       <c r="U118" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V118" s="8"/>
+      <c r="V118" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W118" s="8" t="s">
         <v>2035</v>
       </c>
@@ -16905,7 +17142,9 @@
       <c r="U119" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V119" s="8"/>
+      <c r="V119" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W119" s="8" t="s">
         <v>2035</v>
       </c>
@@ -16972,7 +17211,9 @@
       <c r="U120" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V120" s="8"/>
+      <c r="V120" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W120" s="8" t="s">
         <v>2035</v>
       </c>
@@ -17039,7 +17280,9 @@
       <c r="U121" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V121" s="8"/>
+      <c r="V121" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W121" s="8" t="s">
         <v>2035</v>
       </c>
@@ -17106,7 +17349,9 @@
       <c r="U122" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V122" s="8"/>
+      <c r="V122" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W122" s="8" t="s">
         <v>2035</v>
       </c>
@@ -17173,7 +17418,9 @@
       <c r="U123" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V123" s="8"/>
+      <c r="V123" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W123" s="8" t="s">
         <v>2035</v>
       </c>
@@ -17240,7 +17487,9 @@
       <c r="U124" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V124" s="8"/>
+      <c r="V124" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W124" s="8" t="s">
         <v>2035</v>
       </c>
@@ -17307,7 +17556,9 @@
       <c r="U125" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V125" s="8"/>
+      <c r="V125" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W125" s="8" t="s">
         <v>2035</v>
       </c>
@@ -17374,7 +17625,9 @@
       <c r="U126" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V126" s="8"/>
+      <c r="V126" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W126" s="8" t="s">
         <v>2035</v>
       </c>
@@ -17441,7 +17694,9 @@
       <c r="U127" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V127" s="8"/>
+      <c r="V127" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W127" s="8" t="s">
         <v>2035</v>
       </c>
@@ -17508,7 +17763,9 @@
       <c r="U128" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V128" s="8"/>
+      <c r="V128" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W128" s="8" t="s">
         <v>2035</v>
       </c>
@@ -17575,7 +17832,9 @@
       <c r="U129" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V129" s="8"/>
+      <c r="V129" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W129" s="8" t="s">
         <v>2035</v>
       </c>
@@ -17642,7 +17901,9 @@
       <c r="U130" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V130" s="8"/>
+      <c r="V130" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W130" s="8" t="s">
         <v>2035</v>
       </c>
@@ -17709,7 +17970,9 @@
       <c r="U131" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V131" s="8"/>
+      <c r="V131" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W131" s="8" t="s">
         <v>2035</v>
       </c>
@@ -17776,7 +18039,9 @@
       <c r="U132" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V132" s="8"/>
+      <c r="V132" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W132" s="8" t="s">
         <v>2035</v>
       </c>
@@ -17843,7 +18108,9 @@
       <c r="U133" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V133" s="8"/>
+      <c r="V133" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W133" s="8" t="s">
         <v>2035</v>
       </c>
@@ -17910,7 +18177,9 @@
       <c r="U134" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V134" s="8"/>
+      <c r="V134" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W134" s="8" t="s">
         <v>2035</v>
       </c>
@@ -17977,7 +18246,9 @@
       <c r="U135" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V135" s="8"/>
+      <c r="V135" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W135" s="8" t="s">
         <v>2035</v>
       </c>
@@ -18044,7 +18315,9 @@
       <c r="U136" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V136" s="8"/>
+      <c r="V136" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W136" s="8" t="s">
         <v>2035</v>
       </c>
@@ -18111,7 +18384,9 @@
       <c r="U137" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V137" s="8"/>
+      <c r="V137" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W137" s="8" t="s">
         <v>2035</v>
       </c>
@@ -18178,7 +18453,9 @@
       <c r="U138" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V138" s="8"/>
+      <c r="V138" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W138" s="8" t="s">
         <v>2035</v>
       </c>
@@ -18245,7 +18522,9 @@
       <c r="U139" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V139" s="8"/>
+      <c r="V139" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W139" s="8" t="s">
         <v>2035</v>
       </c>
@@ -18312,7 +18591,9 @@
       <c r="U140" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V140" s="8"/>
+      <c r="V140" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W140" s="8" t="s">
         <v>2035</v>
       </c>
@@ -18379,7 +18660,9 @@
       <c r="U141" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V141" s="8"/>
+      <c r="V141" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W141" s="8" t="s">
         <v>2035</v>
       </c>
@@ -18446,7 +18729,9 @@
       <c r="U142" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V142" s="8"/>
+      <c r="V142" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W142" s="8" t="s">
         <v>2035</v>
       </c>
@@ -18513,7 +18798,9 @@
       <c r="U143" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V143" s="8"/>
+      <c r="V143" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W143" s="8" t="s">
         <v>2035</v>
       </c>
@@ -18580,7 +18867,9 @@
       <c r="U144" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V144" s="8"/>
+      <c r="V144" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W144" s="8" t="s">
         <v>2035</v>
       </c>
@@ -18647,7 +18936,9 @@
       <c r="U145" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V145" s="8"/>
+      <c r="V145" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W145" s="8" t="s">
         <v>2035</v>
       </c>
@@ -18714,7 +19005,9 @@
       <c r="U146" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V146" s="8"/>
+      <c r="V146" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W146" s="8" t="s">
         <v>2035</v>
       </c>
@@ -18781,7 +19074,9 @@
       <c r="U147" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V147" s="8"/>
+      <c r="V147" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W147" s="8" t="s">
         <v>2035</v>
       </c>
@@ -18848,7 +19143,9 @@
       <c r="U148" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V148" s="8"/>
+      <c r="V148" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W148" s="8" t="s">
         <v>2035</v>
       </c>
@@ -18915,7 +19212,9 @@
       <c r="U149" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V149" s="8"/>
+      <c r="V149" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W149" s="8" t="s">
         <v>2035</v>
       </c>
@@ -18982,7 +19281,9 @@
       <c r="U150" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V150" s="8"/>
+      <c r="V150" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W150" s="8" t="s">
         <v>2035</v>
       </c>
@@ -19049,7 +19350,9 @@
       <c r="U151" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V151" s="8"/>
+      <c r="V151" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W151" s="8" t="s">
         <v>2035</v>
       </c>
@@ -19116,7 +19419,9 @@
       <c r="U152" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V152" s="8"/>
+      <c r="V152" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W152" s="8" t="s">
         <v>2035</v>
       </c>
@@ -19183,7 +19488,9 @@
       <c r="U153" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V153" s="8"/>
+      <c r="V153" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W153" s="8" t="s">
         <v>2035</v>
       </c>
@@ -19250,7 +19557,9 @@
       <c r="U154" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V154" s="8"/>
+      <c r="V154" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W154" s="8" t="s">
         <v>2035</v>
       </c>
@@ -19317,7 +19626,9 @@
       <c r="U155" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V155" s="8"/>
+      <c r="V155" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W155" s="8" t="s">
         <v>2035</v>
       </c>
@@ -19384,7 +19695,9 @@
       <c r="U156" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V156" s="8"/>
+      <c r="V156" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W156" s="8" t="s">
         <v>2035</v>
       </c>
@@ -19451,7 +19764,9 @@
       <c r="U157" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V157" s="8"/>
+      <c r="V157" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W157" s="8" t="s">
         <v>2035</v>
       </c>
@@ -19518,7 +19833,9 @@
       <c r="U158" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V158" s="8"/>
+      <c r="V158" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W158" s="8" t="s">
         <v>2035</v>
       </c>
@@ -19585,7 +19902,9 @@
       <c r="U159" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V159" s="8"/>
+      <c r="V159" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W159" s="8" t="s">
         <v>2035</v>
       </c>
@@ -19652,7 +19971,9 @@
       <c r="U160" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V160" s="8"/>
+      <c r="V160" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W160" s="8" t="s">
         <v>2035</v>
       </c>
@@ -19719,7 +20040,9 @@
       <c r="U161" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V161" s="8"/>
+      <c r="V161" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W161" s="8" t="s">
         <v>2035</v>
       </c>
@@ -19786,7 +20109,9 @@
       <c r="U162" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V162" s="8"/>
+      <c r="V162" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W162" s="8" t="s">
         <v>2035</v>
       </c>
@@ -19853,7 +20178,9 @@
       <c r="U163" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V163" s="8"/>
+      <c r="V163" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W163" s="8" t="s">
         <v>2035</v>
       </c>
@@ -19920,7 +20247,9 @@
       <c r="U164" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V164" s="8"/>
+      <c r="V164" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W164" s="8" t="s">
         <v>2035</v>
       </c>
@@ -19987,7 +20316,9 @@
       <c r="U165" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V165" s="8"/>
+      <c r="V165" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W165" s="8" t="s">
         <v>2035</v>
       </c>
@@ -20054,7 +20385,9 @@
       <c r="U166" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V166" s="8"/>
+      <c r="V166" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W166" s="8" t="s">
         <v>2035</v>
       </c>
@@ -20121,7 +20454,9 @@
       <c r="U167" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V167" s="8"/>
+      <c r="V167" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W167" s="8" t="s">
         <v>2035</v>
       </c>
@@ -20188,7 +20523,9 @@
       <c r="U168" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V168" s="8"/>
+      <c r="V168" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W168" s="8" t="s">
         <v>2035</v>
       </c>
@@ -20255,7 +20592,9 @@
       <c r="U169" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V169" s="8"/>
+      <c r="V169" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W169" s="8" t="s">
         <v>2035</v>
       </c>
@@ -20322,7 +20661,9 @@
       <c r="U170" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V170" s="8"/>
+      <c r="V170" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W170" s="8" t="s">
         <v>2035</v>
       </c>
@@ -20389,7 +20730,9 @@
       <c r="U171" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V171" s="8"/>
+      <c r="V171" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W171" s="8" t="s">
         <v>2035</v>
       </c>
@@ -20456,7 +20799,9 @@
       <c r="U172" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V172" s="8"/>
+      <c r="V172" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W172" s="8" t="s">
         <v>2035</v>
       </c>
@@ -20523,7 +20868,9 @@
       <c r="U173" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V173" s="8"/>
+      <c r="V173" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W173" s="8" t="s">
         <v>2035</v>
       </c>
@@ -20590,7 +20937,9 @@
       <c r="U174" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V174" s="8"/>
+      <c r="V174" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W174" s="8" t="s">
         <v>2035</v>
       </c>
@@ -20657,7 +21006,9 @@
       <c r="U175" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V175" s="8"/>
+      <c r="V175" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W175" s="8" t="s">
         <v>2035</v>
       </c>
@@ -20724,7 +21075,9 @@
       <c r="U176" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V176" s="8"/>
+      <c r="V176" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W176" s="8" t="s">
         <v>2035</v>
       </c>
@@ -20791,7 +21144,9 @@
       <c r="U177" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V177" s="8"/>
+      <c r="V177" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W177" s="8" t="s">
         <v>2035</v>
       </c>
@@ -20858,7 +21213,9 @@
       <c r="U178" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V178" s="8"/>
+      <c r="V178" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W178" s="8" t="s">
         <v>2035</v>
       </c>
@@ -20925,7 +21282,9 @@
       <c r="U179" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V179" s="8"/>
+      <c r="V179" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W179" s="8" t="s">
         <v>2035</v>
       </c>
@@ -20992,7 +21351,9 @@
       <c r="U180" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V180" s="8"/>
+      <c r="V180" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W180" s="8" t="s">
         <v>2035</v>
       </c>
@@ -21059,7 +21420,9 @@
       <c r="U181" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V181" s="8"/>
+      <c r="V181" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W181" s="8" t="s">
         <v>2035</v>
       </c>
@@ -21126,7 +21489,9 @@
       <c r="U182" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V182" s="8"/>
+      <c r="V182" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W182" s="8" t="s">
         <v>2035</v>
       </c>
@@ -21193,7 +21558,9 @@
       <c r="U183" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V183" s="8"/>
+      <c r="V183" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W183" s="8" t="s">
         <v>2035</v>
       </c>
@@ -21262,7 +21629,9 @@
       <c r="U184" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V184" s="8"/>
+      <c r="V184" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="185" spans="1:23">
       <c r="A185" s="8">
@@ -21326,7 +21695,9 @@
       <c r="U185" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V185" s="8"/>
+      <c r="V185" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="186" spans="1:23">
       <c r="A186" s="8">
@@ -21390,7 +21761,9 @@
       <c r="U186" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V186" s="8"/>
+      <c r="V186" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W186" s="8" t="s">
         <v>2035</v>
       </c>
@@ -21457,7 +21830,9 @@
       <c r="U187" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V187" s="8"/>
+      <c r="V187" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W187" s="8" t="s">
         <v>2035</v>
       </c>
@@ -21524,7 +21899,9 @@
       <c r="U188" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V188" s="8"/>
+      <c r="V188" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W188" s="8" t="s">
         <v>2035</v>
       </c>
@@ -21591,7 +21968,9 @@
       <c r="U189" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V189" s="8"/>
+      <c r="V189" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W189" s="8" t="s">
         <v>2035</v>
       </c>
@@ -21658,7 +22037,9 @@
       <c r="U190" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V190" s="8"/>
+      <c r="V190" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W190" s="8" t="s">
         <v>2035</v>
       </c>
@@ -21725,7 +22106,9 @@
       <c r="U191" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V191" s="8"/>
+      <c r="V191" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W191" s="8" t="s">
         <v>2035</v>
       </c>
@@ -21792,7 +22175,9 @@
       <c r="U192" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V192" s="8"/>
+      <c r="V192" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W192" s="8" t="s">
         <v>2035</v>
       </c>
@@ -21859,7 +22244,9 @@
       <c r="U193" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V193" s="8"/>
+      <c r="V193" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W193" s="8" t="s">
         <v>2035</v>
       </c>
@@ -21926,7 +22313,9 @@
       <c r="U194" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V194" s="8"/>
+      <c r="V194" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W194" s="8" t="s">
         <v>2035</v>
       </c>
@@ -21993,7 +22382,9 @@
       <c r="U195" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V195" s="8"/>
+      <c r="V195" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W195" s="8" t="s">
         <v>2035</v>
       </c>
@@ -22060,7 +22451,9 @@
       <c r="U196" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V196" s="8"/>
+      <c r="V196" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W196" s="8" t="s">
         <v>2035</v>
       </c>
@@ -22127,7 +22520,9 @@
       <c r="U197" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V197" s="8"/>
+      <c r="V197" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W197" s="8" t="s">
         <v>2035</v>
       </c>
@@ -22194,7 +22589,9 @@
       <c r="U198" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V198" s="8"/>
+      <c r="V198" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W198" s="8" t="s">
         <v>2035</v>
       </c>
@@ -22261,7 +22658,9 @@
       <c r="U199" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V199" s="8"/>
+      <c r="V199" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W199" s="8" t="s">
         <v>2035</v>
       </c>
@@ -22328,7 +22727,9 @@
       <c r="U200" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V200" s="8"/>
+      <c r="V200" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W200" s="8" t="s">
         <v>2035</v>
       </c>
@@ -22395,7 +22796,9 @@
       <c r="U201" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V201" s="8"/>
+      <c r="V201" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W201" s="8" t="s">
         <v>2035</v>
       </c>
@@ -22462,7 +22865,9 @@
       <c r="U202" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V202" s="8"/>
+      <c r="V202" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W202" s="8" t="s">
         <v>2035</v>
       </c>
@@ -22529,7 +22934,9 @@
       <c r="U203" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V203" s="8"/>
+      <c r="V203" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W203" s="8" t="s">
         <v>2035</v>
       </c>
@@ -22596,7 +23003,9 @@
       <c r="U204" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V204" s="8"/>
+      <c r="V204" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W204" s="8" t="s">
         <v>2035</v>
       </c>
@@ -22663,7 +23072,9 @@
       <c r="U205" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V205" s="8"/>
+      <c r="V205" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W205" s="8" t="s">
         <v>2035</v>
       </c>
@@ -22730,7 +23141,9 @@
       <c r="U206" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V206" s="8"/>
+      <c r="V206" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="207" spans="1:23">
       <c r="A207" s="8">
@@ -22794,7 +23207,9 @@
       <c r="U207" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V207" s="8"/>
+      <c r="V207" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W207" s="8" t="s">
         <v>2035</v>
       </c>
@@ -22861,7 +23276,9 @@
       <c r="U208" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V208" s="8"/>
+      <c r="V208" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W208" s="8" t="s">
         <v>2035</v>
       </c>
@@ -22928,7 +23345,9 @@
       <c r="U209" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V209" s="8"/>
+      <c r="V209" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W209" s="8" t="s">
         <v>2035</v>
       </c>
@@ -22995,7 +23414,9 @@
       <c r="U210" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V210" s="8"/>
+      <c r="V210" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W210" s="8" t="s">
         <v>2035</v>
       </c>
@@ -23062,7 +23483,9 @@
       <c r="U211" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V211" s="8"/>
+      <c r="V211" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W211" s="8" t="s">
         <v>2035</v>
       </c>
@@ -23129,7 +23552,9 @@
       <c r="U212" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V212" s="8"/>
+      <c r="V212" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W212" s="8" t="s">
         <v>2035</v>
       </c>
@@ -23196,7 +23621,9 @@
       <c r="U213" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V213" s="8"/>
+      <c r="V213" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W213" s="8" t="s">
         <v>2035</v>
       </c>
@@ -23263,7 +23690,9 @@
       <c r="U214" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V214" s="8"/>
+      <c r="V214" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W214" s="8" t="s">
         <v>2035</v>
       </c>
@@ -23330,7 +23759,9 @@
       <c r="U215" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V215" s="8"/>
+      <c r="V215" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W215" s="8" t="s">
         <v>2035</v>
       </c>
@@ -23397,7 +23828,9 @@
       <c r="U216" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V216" s="8"/>
+      <c r="V216" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W216" s="8" t="s">
         <v>2035</v>
       </c>
@@ -23464,7 +23897,9 @@
       <c r="U217" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V217" s="8"/>
+      <c r="V217" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W217" s="8" t="s">
         <v>2035</v>
       </c>
@@ -23531,7 +23966,9 @@
       <c r="U218" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V218" s="8"/>
+      <c r="V218" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W218" s="8" t="s">
         <v>2035</v>
       </c>
@@ -23598,7 +24035,9 @@
       <c r="U219" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V219" s="8"/>
+      <c r="V219" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W219" s="8" t="s">
         <v>2035</v>
       </c>
@@ -23665,7 +24104,9 @@
       <c r="U220" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V220" s="8"/>
+      <c r="V220" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W220" s="8" t="s">
         <v>2035</v>
       </c>
@@ -23732,7 +24173,9 @@
       <c r="U221" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V221" s="8"/>
+      <c r="V221" s="8" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="222" spans="1:23">
       <c r="A222" s="8">
@@ -23796,7 +24239,9 @@
       <c r="U222" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V222" s="8"/>
+      <c r="V222" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W222" s="8" t="s">
         <v>2035</v>
       </c>
@@ -23863,7 +24308,9 @@
       <c r="U223" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V223" s="8"/>
+      <c r="V223" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W223" s="8" t="s">
         <v>2035</v>
       </c>
@@ -23930,7 +24377,9 @@
       <c r="U224" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V224" s="8"/>
+      <c r="V224" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W224" s="8" t="s">
         <v>2035</v>
       </c>
@@ -23997,7 +24446,9 @@
       <c r="U225" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V225" s="8"/>
+      <c r="V225" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W225" s="8" t="s">
         <v>2035</v>
       </c>
@@ -24064,7 +24515,9 @@
       <c r="U226" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V226" s="8"/>
+      <c r="V226" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W226" s="8" t="s">
         <v>2035</v>
       </c>
@@ -24131,7 +24584,9 @@
       <c r="U227" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V227" s="8"/>
+      <c r="V227" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W227" s="8" t="s">
         <v>2035</v>
       </c>
@@ -24198,7 +24653,9 @@
       <c r="U228" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V228" s="8"/>
+      <c r="V228" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W228" s="8" t="s">
         <v>2035</v>
       </c>
@@ -24265,7 +24722,9 @@
       <c r="U229" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V229" s="8"/>
+      <c r="V229" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W229" s="8" t="s">
         <v>2035</v>
       </c>
@@ -24332,7 +24791,9 @@
       <c r="U230" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V230" s="8"/>
+      <c r="V230" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W230" s="8" t="s">
         <v>2035</v>
       </c>
@@ -24399,7 +24860,9 @@
       <c r="U231" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V231" s="8"/>
+      <c r="V231" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W231" s="8" t="s">
         <v>2035</v>
       </c>
@@ -24466,7 +24929,9 @@
       <c r="U232" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V232" s="8"/>
+      <c r="V232" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W232" s="8" t="s">
         <v>2035</v>
       </c>
@@ -24533,7 +24998,9 @@
       <c r="U233" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V233" s="8"/>
+      <c r="V233" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W233" s="8" t="s">
         <v>2035</v>
       </c>
@@ -24600,7 +25067,9 @@
       <c r="U234" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V234" s="8"/>
+      <c r="V234" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W234" s="8" t="s">
         <v>2035</v>
       </c>
@@ -24667,7 +25136,9 @@
       <c r="U235" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V235" s="8"/>
+      <c r="V235" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W235" s="8" t="s">
         <v>2035</v>
       </c>
@@ -24734,7 +25205,9 @@
       <c r="U236" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V236" s="8"/>
+      <c r="V236" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W236" s="8" t="s">
         <v>2035</v>
       </c>
@@ -24801,7 +25274,9 @@
       <c r="U237" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V237" s="8"/>
+      <c r="V237" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W237" s="8" t="s">
         <v>2035</v>
       </c>
@@ -24868,7 +25343,9 @@
       <c r="U238" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V238" s="8"/>
+      <c r="V238" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W238" s="8" t="s">
         <v>2035</v>
       </c>
@@ -24935,7 +25412,9 @@
       <c r="U239" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V239" s="8"/>
+      <c r="V239" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W239" s="8" t="s">
         <v>2035</v>
       </c>
@@ -25002,7 +25481,9 @@
       <c r="U240" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V240" s="8"/>
+      <c r="V240" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W240" s="8" t="s">
         <v>2035</v>
       </c>
@@ -25069,7 +25550,9 @@
       <c r="U241" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V241" s="8"/>
+      <c r="V241" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W241" s="8" t="s">
         <v>2035</v>
       </c>
@@ -25136,7 +25619,9 @@
       <c r="U242" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V242" s="8"/>
+      <c r="V242" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W242" s="8" t="s">
         <v>2035</v>
       </c>
@@ -25203,7 +25688,9 @@
       <c r="U243" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V243" s="8"/>
+      <c r="V243" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W243" s="8" t="s">
         <v>2035</v>
       </c>
@@ -25270,7 +25757,9 @@
       <c r="U244" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V244" s="8"/>
+      <c r="V244" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W244" s="8" t="s">
         <v>2035</v>
       </c>
@@ -25337,7 +25826,9 @@
       <c r="U245" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V245" s="8"/>
+      <c r="V245" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W245" s="8" t="s">
         <v>2035</v>
       </c>
@@ -25404,7 +25895,9 @@
       <c r="U246" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V246" s="8"/>
+      <c r="V246" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W246" s="8" t="s">
         <v>2035</v>
       </c>
@@ -25471,7 +25964,9 @@
       <c r="U247" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V247" s="8"/>
+      <c r="V247" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W247" s="8" t="s">
         <v>2035</v>
       </c>
@@ -25538,7 +26033,9 @@
       <c r="U248" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V248" s="8"/>
+      <c r="V248" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W248" s="8" t="s">
         <v>2035</v>
       </c>
@@ -25605,7 +26102,9 @@
       <c r="U249" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V249" s="8"/>
+      <c r="V249" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W249" s="8" t="s">
         <v>2035</v>
       </c>
@@ -25672,7 +26171,9 @@
       <c r="U250" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V250" s="8"/>
+      <c r="V250" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W250" s="8" t="s">
         <v>2035</v>
       </c>
@@ -25739,7 +26240,9 @@
       <c r="U251" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V251" s="8"/>
+      <c r="V251" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W251" s="8" t="s">
         <v>2035</v>
       </c>
@@ -25806,7 +26309,9 @@
       <c r="U252" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V252" s="8"/>
+      <c r="V252" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W252" s="8" t="s">
         <v>2035</v>
       </c>
@@ -25873,7 +26378,9 @@
       <c r="U253" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V253" s="8"/>
+      <c r="V253" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W253" s="8" t="s">
         <v>2035</v>
       </c>
@@ -25940,7 +26447,9 @@
       <c r="U254" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V254" s="8"/>
+      <c r="V254" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W254" s="8" t="s">
         <v>2035</v>
       </c>
@@ -26007,7 +26516,9 @@
       <c r="U255" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V255" s="8"/>
+      <c r="V255" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W255" s="8" t="s">
         <v>2035</v>
       </c>
@@ -26074,7 +26585,9 @@
       <c r="U256" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V256" s="8"/>
+      <c r="V256" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W256" s="8" t="s">
         <v>2035</v>
       </c>
@@ -26141,7 +26654,9 @@
       <c r="U257" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V257" s="8"/>
+      <c r="V257" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W257" s="8" t="s">
         <v>2035</v>
       </c>
@@ -26208,7 +26723,9 @@
       <c r="U258" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V258" s="8"/>
+      <c r="V258" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W258" s="8" t="s">
         <v>2035</v>
       </c>
@@ -26275,7 +26792,9 @@
       <c r="U259" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V259" s="8"/>
+      <c r="V259" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W259" s="8" t="s">
         <v>2035</v>
       </c>
@@ -26342,7 +26861,9 @@
       <c r="U260" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V260" s="8"/>
+      <c r="V260" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W260" s="8" t="s">
         <v>2035</v>
       </c>
@@ -26409,7 +26930,9 @@
       <c r="U261" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V261" s="8"/>
+      <c r="V261" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W261" s="8" t="s">
         <v>2035</v>
       </c>
@@ -26476,7 +26999,9 @@
       <c r="U262" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V262" s="8"/>
+      <c r="V262" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W262" s="8" t="s">
         <v>2035</v>
       </c>
@@ -26543,7 +27068,9 @@
       <c r="U263" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V263" s="8"/>
+      <c r="V263" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W263" s="8" t="s">
         <v>2035</v>
       </c>
@@ -26610,7 +27137,9 @@
       <c r="U264" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V264" s="8"/>
+      <c r="V264" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W264" s="8" t="s">
         <v>2035</v>
       </c>
@@ -26677,7 +27206,9 @@
       <c r="U265" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V265" s="8"/>
+      <c r="V265" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W265" s="8" t="s">
         <v>2035</v>
       </c>
@@ -26744,7 +27275,9 @@
       <c r="U266" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V266" s="8"/>
+      <c r="V266" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W266" s="8" t="s">
         <v>2035</v>
       </c>
@@ -26811,7 +27344,9 @@
       <c r="U267" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V267" s="8"/>
+      <c r="V267" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W267" s="8" t="s">
         <v>2035</v>
       </c>
@@ -26878,7 +27413,9 @@
       <c r="U268" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V268" s="8"/>
+      <c r="V268" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W268" s="8" t="s">
         <v>2035</v>
       </c>
@@ -26945,7 +27482,9 @@
       <c r="U269" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V269" s="8"/>
+      <c r="V269" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W269" s="8" t="s">
         <v>2035</v>
       </c>
@@ -27012,7 +27551,9 @@
       <c r="U270" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V270" s="8"/>
+      <c r="V270" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W270" s="8" t="s">
         <v>2035</v>
       </c>
@@ -27079,7 +27620,9 @@
       <c r="U271" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V271" s="8"/>
+      <c r="V271" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W271" s="8" t="s">
         <v>2035</v>
       </c>
@@ -27146,7 +27689,9 @@
       <c r="U272" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V272" s="8"/>
+      <c r="V272" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W272" s="8" t="s">
         <v>2035</v>
       </c>
@@ -27213,7 +27758,9 @@
       <c r="U273" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V273" s="8"/>
+      <c r="V273" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W273" s="8" t="s">
         <v>2035</v>
       </c>
@@ -27280,7 +27827,9 @@
       <c r="U274" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V274" s="8"/>
+      <c r="V274" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W274" s="8" t="s">
         <v>2035</v>
       </c>
@@ -27347,7 +27896,9 @@
       <c r="U275" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V275" s="8"/>
+      <c r="V275" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W275" s="8" t="s">
         <v>2035</v>
       </c>
@@ -27414,7 +27965,9 @@
       <c r="U276" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V276" s="8"/>
+      <c r="V276" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W276" s="8" t="s">
         <v>2035</v>
       </c>
@@ -27481,7 +28034,9 @@
       <c r="U277" s="8" t="s">
         <v>2021</v>
       </c>
-      <c r="V277" s="8"/>
+      <c r="V277" s="8" t="s">
+        <v>2684</v>
+      </c>
       <c r="W277" s="8" t="s">
         <v>2035</v>
       </c>
@@ -27504,8 +28059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
@@ -94920,7 +95475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
